--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.51314547345029</v>
+        <v>75.62349474110773</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.90148763896522</v>
+        <v>103.4714017778685</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.60773162572708</v>
+        <v>93.59623641523932</v>
       </c>
       <c r="AD2" t="n">
-        <v>63513.14547345029</v>
+        <v>75623.49474110773</v>
       </c>
       <c r="AE2" t="n">
-        <v>86901.48763896522</v>
+        <v>103471.4017778685</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.072103581327076e-06</v>
+        <v>1.308524320421812e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>78607.73162572709</v>
+        <v>93596.23641523931</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.56142483765032</v>
+        <v>50.75702545133124</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.76144267271314</v>
+        <v>69.44800146441293</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.72596463527923</v>
+        <v>62.81998167554682</v>
       </c>
       <c r="AD3" t="n">
-        <v>38561.42483765032</v>
+        <v>50757.02545133125</v>
       </c>
       <c r="AE3" t="n">
-        <v>52761.44267271314</v>
+        <v>69448.00146441293</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.004926629484035e-05</v>
+        <v>1.859377368837442e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.512044270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>47725.96463527923</v>
+        <v>62819.98167554682</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>35.96835267579706</v>
+        <v>47.99336108888537</v>
       </c>
       <c r="AB4" t="n">
-        <v>49.21348694261271</v>
+        <v>65.6666339594497</v>
       </c>
       <c r="AC4" t="n">
-        <v>44.5166208204619</v>
+        <v>59.39950257807346</v>
       </c>
       <c r="AD4" t="n">
-        <v>35968.35267579705</v>
+        <v>47993.36108888537</v>
       </c>
       <c r="AE4" t="n">
-        <v>49213.48694261271</v>
+        <v>65666.6339594497</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.105976687653051e-05</v>
+        <v>2.046346432813431e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.373697916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>44516.6208204619</v>
+        <v>59399.50257807346</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>34.47076430386821</v>
+        <v>34.47085381241927</v>
       </c>
       <c r="AB5" t="n">
-        <v>47.16442046321352</v>
+        <v>47.1645429327619</v>
       </c>
       <c r="AC5" t="n">
-        <v>42.6631143699676</v>
+        <v>42.66322515119417</v>
       </c>
       <c r="AD5" t="n">
-        <v>34470.76430386821</v>
+        <v>34470.85381241927</v>
       </c>
       <c r="AE5" t="n">
-        <v>47164.42046321352</v>
+        <v>47164.54293276191</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.162556504016743e-05</v>
+        <v>2.151033906498592e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.306966145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>42663.1143699676</v>
+        <v>42663.22515119417</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>34.50062027578024</v>
+        <v>34.50070978433128</v>
       </c>
       <c r="AB6" t="n">
-        <v>47.20527072113588</v>
+        <v>47.20539319068426</v>
       </c>
       <c r="AC6" t="n">
-        <v>42.70006593660766</v>
+        <v>42.70017671783422</v>
       </c>
       <c r="AD6" t="n">
-        <v>34500.62027578024</v>
+        <v>34500.70978433129</v>
       </c>
       <c r="AE6" t="n">
-        <v>47205.27072113587</v>
+        <v>47205.39319068426</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.162995324374679e-05</v>
+        <v>2.151845839050276e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.306966145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>42700.06593660767</v>
+        <v>42700.17671783423</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.07702535447152</v>
+        <v>53.84073748719207</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.57164239715321</v>
+        <v>73.66727231564911</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.07708564919078</v>
+        <v>66.6365712385262</v>
       </c>
       <c r="AD2" t="n">
-        <v>42077.02535447152</v>
+        <v>53840.73748719206</v>
       </c>
       <c r="AE2" t="n">
-        <v>57571.64239715321</v>
+        <v>73667.27231564911</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.615651481856399e-06</v>
+        <v>1.642276139857722e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.824544270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>52077.08564919078</v>
+        <v>66636.5712385262</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.47359419500442</v>
+        <v>46.06671412713155</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.16829244511204</v>
+        <v>63.03051058871433</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.66661681534809</v>
+        <v>57.01496712201784</v>
       </c>
       <c r="AD3" t="n">
-        <v>34473.59419500441</v>
+        <v>46066.71412713156</v>
       </c>
       <c r="AE3" t="n">
-        <v>47168.29244511203</v>
+        <v>63030.51058871433</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135453658612539e-05</v>
+        <v>2.164349910602161e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.385091145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>42666.61681534808</v>
+        <v>57014.96712201784</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>32.64554564703005</v>
+        <v>32.64563515558109</v>
       </c>
       <c r="AB4" t="n">
-        <v>44.6670757739755</v>
+        <v>44.66719824352388</v>
       </c>
       <c r="AC4" t="n">
-        <v>40.40411275281775</v>
+        <v>40.40422353404431</v>
       </c>
       <c r="AD4" t="n">
-        <v>32645.54564703005</v>
+        <v>32645.63515558109</v>
       </c>
       <c r="AE4" t="n">
-        <v>44667.07577397551</v>
+        <v>44667.19824352388</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.221492338687399e-05</v>
+        <v>2.328352913380715e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.287434895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>40404.11275281775</v>
+        <v>40404.22353404431</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>32.69538467154617</v>
+        <v>32.69547418009721</v>
       </c>
       <c r="AB5" t="n">
-        <v>44.73526772606071</v>
+        <v>44.73539019560909</v>
       </c>
       <c r="AC5" t="n">
-        <v>40.46579656070414</v>
+        <v>40.46590734193071</v>
       </c>
       <c r="AD5" t="n">
-        <v>32695.38467154616</v>
+        <v>32695.4741800972</v>
       </c>
       <c r="AE5" t="n">
-        <v>44735.26772606071</v>
+        <v>44735.39019560908</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.220970775067726e-05</v>
+        <v>2.327358732627455e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.287434895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>40465.79656070414</v>
+        <v>40465.90734193071</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>28.5254961135281</v>
+        <v>38.81834640412502</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.02984223850824</v>
+        <v>53.11297409454168</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.30488887405173</v>
+        <v>48.04394639158696</v>
       </c>
       <c r="AD2" t="n">
-        <v>28525.4961135281</v>
+        <v>38818.34640412503</v>
       </c>
       <c r="AE2" t="n">
-        <v>39029.84223850824</v>
+        <v>53112.97409454169</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.31719203692141e-05</v>
+        <v>2.805274325621545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.331380208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>35304.88887405174</v>
+        <v>48043.94639158696</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>28.53383640044326</v>
+        <v>38.82668669104019</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.04125378701301</v>
+        <v>53.12438564304644</v>
       </c>
       <c r="AC3" t="n">
-        <v>35.31521132038345</v>
+        <v>48.05426883791866</v>
       </c>
       <c r="AD3" t="n">
-        <v>28533.83640044326</v>
+        <v>38826.68669104019</v>
       </c>
       <c r="AE3" t="n">
-        <v>39041.253787013</v>
+        <v>53124.38564304644</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.321190517036107e-05</v>
+        <v>2.813790041851871e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>35315.21132038345</v>
+        <v>48054.26883791866</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.10843687100589</v>
+        <v>42.9096407166158</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.93217985105598</v>
+        <v>58.71086346819987</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.73935426534656</v>
+        <v>53.10758106002108</v>
       </c>
       <c r="AD2" t="n">
-        <v>32108.4368710059</v>
+        <v>42909.6407166158</v>
       </c>
       <c r="AE2" t="n">
-        <v>43932.17985105597</v>
+        <v>58710.86346819987</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165732926152225e-05</v>
+        <v>2.366840870871321e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.438802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>39739.35426534656</v>
+        <v>53107.58106002108</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>30.04915755976592</v>
+        <v>30.04924706831697</v>
       </c>
       <c r="AB3" t="n">
-        <v>41.11458304843966</v>
+        <v>41.11470551798804</v>
       </c>
       <c r="AC3" t="n">
-        <v>37.19066494704161</v>
+        <v>37.19077572826818</v>
       </c>
       <c r="AD3" t="n">
-        <v>30049.15755976592</v>
+        <v>30049.24706831697</v>
       </c>
       <c r="AE3" t="n">
-        <v>41114.58304843966</v>
+        <v>41114.70551798804</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292140434197601e-05</v>
+        <v>2.623491815281311e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.298828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>37190.66494704161</v>
+        <v>37190.77572826818</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>27.4854993437987</v>
+        <v>37.36139544019831</v>
       </c>
       <c r="AB2" t="n">
-        <v>37.60687277675204</v>
+        <v>51.11950950956665</v>
       </c>
       <c r="AC2" t="n">
-        <v>34.01772562057113</v>
+        <v>46.24073526875088</v>
       </c>
       <c r="AD2" t="n">
-        <v>27485.4993437987</v>
+        <v>37361.39544019831</v>
       </c>
       <c r="AE2" t="n">
-        <v>37606.87277675204</v>
+        <v>51119.50950956665</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305734584943493e-05</v>
+        <v>2.907615879313421e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.394856770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>34017.72562057113</v>
+        <v>46240.73526875088</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.09293837866961</v>
+        <v>55.97016870626129</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.3299035328296</v>
+        <v>76.58085405345334</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.57210221322008</v>
+        <v>69.27208482451296</v>
       </c>
       <c r="AD2" t="n">
-        <v>44092.93837866961</v>
+        <v>55970.16870626129</v>
       </c>
       <c r="AE2" t="n">
-        <v>60329.9035328296</v>
+        <v>76580.85405345334</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.206402593512404e-06</v>
+        <v>1.551636787390541e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.897786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54572.10221322007</v>
+        <v>69272.08482451296</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.45162197789401</v>
+        <v>47.15826010489592</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.5064732051957</v>
+        <v>64.52401195110068</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.87708348184184</v>
+        <v>58.36593081052083</v>
       </c>
       <c r="AD3" t="n">
-        <v>35451.62197789401</v>
+        <v>47158.26010489592</v>
       </c>
       <c r="AE3" t="n">
-        <v>48506.4732051957</v>
+        <v>64524.01195110068</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.102674029011056e-05</v>
+        <v>2.08489599238806e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.412760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>43877.08348184184</v>
+        <v>58365.93081052083</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>33.06029086885518</v>
+        <v>33.06038037740623</v>
       </c>
       <c r="AB4" t="n">
-        <v>45.23454848374175</v>
+        <v>45.23467095329012</v>
       </c>
       <c r="AC4" t="n">
-        <v>40.91742666361852</v>
+        <v>40.91753744484509</v>
       </c>
       <c r="AD4" t="n">
-        <v>33060.29086885518</v>
+        <v>33060.38037740623</v>
       </c>
       <c r="AE4" t="n">
-        <v>45234.54848374175</v>
+        <v>45234.67095329012</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.210223034132308e-05</v>
+        <v>2.288245743867853e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.287434895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>40917.42666361852</v>
+        <v>40917.53744484509</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>33.10821818850523</v>
+        <v>33.10830769705628</v>
       </c>
       <c r="AB5" t="n">
-        <v>45.30012475689074</v>
+        <v>45.30024722643913</v>
       </c>
       <c r="AC5" t="n">
-        <v>40.97674442929526</v>
+        <v>40.97685521052183</v>
       </c>
       <c r="AD5" t="n">
-        <v>33108.21818850523</v>
+        <v>33108.30769705628</v>
       </c>
       <c r="AE5" t="n">
-        <v>45300.12475689074</v>
+        <v>45300.24722643913</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.207246197126905e-05</v>
+        <v>2.282617248610625e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.290690104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>40976.74442929526</v>
+        <v>40976.85521052183</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>26.87388097642256</v>
+        <v>36.5028777606275</v>
       </c>
       <c r="AB2" t="n">
-        <v>36.77002954381403</v>
+        <v>49.9448477452566</v>
       </c>
       <c r="AC2" t="n">
-        <v>33.26074953126538</v>
+        <v>45.17818157457496</v>
       </c>
       <c r="AD2" t="n">
-        <v>26873.88097642256</v>
+        <v>36502.8777606275</v>
       </c>
       <c r="AE2" t="n">
-        <v>36770.02954381403</v>
+        <v>49944.8477452566</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.288783463172657e-05</v>
+        <v>2.954622113279471e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.446940104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>33260.74953126538</v>
+        <v>45178.18157457496</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.24829502554085</v>
+        <v>47.64358569220024</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.59651641571514</v>
+        <v>65.1880558307039</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.86309449823781</v>
+        <v>58.96659927424637</v>
       </c>
       <c r="AD2" t="n">
-        <v>36248.29502554085</v>
+        <v>47643.58569220024</v>
       </c>
       <c r="AE2" t="n">
-        <v>49596.51641571514</v>
+        <v>65188.0558307039</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.016708100910381e-05</v>
+        <v>1.992733826945312e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.593424479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>44863.09449823781</v>
+        <v>58966.59927424637</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.01469171984402</v>
+        <v>43.23939018591054</v>
       </c>
       <c r="AB3" t="n">
-        <v>43.80391359949273</v>
+        <v>59.16204123960859</v>
       </c>
       <c r="AC3" t="n">
-        <v>39.6233295648093</v>
+        <v>53.51569905815868</v>
       </c>
       <c r="AD3" t="n">
-        <v>32014.69171984402</v>
+        <v>43239.39018591054</v>
       </c>
       <c r="AE3" t="n">
-        <v>43803.91359949273</v>
+        <v>59162.04123960859</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.220939370534763e-05</v>
+        <v>2.393024292946395e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.326497395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>39623.3295648093</v>
+        <v>53515.69905815868</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>31.39405940597998</v>
+        <v>31.39414891453102</v>
       </c>
       <c r="AB4" t="n">
-        <v>42.95473708730277</v>
+        <v>42.95485955685116</v>
       </c>
       <c r="AC4" t="n">
-        <v>38.85519726711352</v>
+        <v>38.85530804834008</v>
       </c>
       <c r="AD4" t="n">
-        <v>31394.05940597998</v>
+        <v>31394.14891453102</v>
       </c>
       <c r="AE4" t="n">
-        <v>42954.73708730278</v>
+        <v>42954.85955685116</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.259570457056316e-05</v>
+        <v>2.468740688649567e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.285807291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>38855.19726711352</v>
+        <v>38855.30804834008</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.1714024859095</v>
+        <v>51.81727975191708</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.96428511825167</v>
+        <v>70.89868817359226</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.71857088953092</v>
+        <v>64.13221688125414</v>
       </c>
       <c r="AD2" t="n">
-        <v>40171.4024859095</v>
+        <v>51817.27975191709</v>
       </c>
       <c r="AE2" t="n">
-        <v>54964.28511825168</v>
+        <v>70898.68817359227</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.052105828519787e-06</v>
+        <v>1.740451176818613e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.7529296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>49718.57088953092</v>
+        <v>64132.21688125413</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.22468594741953</v>
+        <v>44.69997101283382</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.4594810828314</v>
+        <v>61.16047236328242</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.12089201114662</v>
+        <v>55.32340272020543</v>
       </c>
       <c r="AD3" t="n">
-        <v>33224.68594741953</v>
+        <v>44699.97101283382</v>
       </c>
       <c r="AE3" t="n">
-        <v>45459.48108283139</v>
+        <v>61160.47236328242</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.188135813440588e-05</v>
+        <v>2.284432389431262e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.336263020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>41120.89201114662</v>
+        <v>55323.40272020543</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>32.27408272297792</v>
+        <v>32.27417223152896</v>
       </c>
       <c r="AB4" t="n">
-        <v>44.15882381350222</v>
+        <v>44.1589462830506</v>
       </c>
       <c r="AC4" t="n">
-        <v>39.94436764611441</v>
+        <v>39.94447842734098</v>
       </c>
       <c r="AD4" t="n">
-        <v>32274.08272297791</v>
+        <v>32274.17223152896</v>
       </c>
       <c r="AE4" t="n">
-        <v>44158.82381350222</v>
+        <v>44158.94628305059</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.231622270635515e-05</v>
+        <v>2.368043934672067e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.2890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>39944.36764611441</v>
+        <v>39944.47842734098</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.6711301058718</v>
+        <v>72.6787341992206</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.01291683217717</v>
+        <v>99.44225049079434</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.09028055909425</v>
+        <v>89.95162167205282</v>
       </c>
       <c r="AD2" t="n">
-        <v>60671.13010587179</v>
+        <v>72678.73419922061</v>
       </c>
       <c r="AE2" t="n">
-        <v>83012.91683217717</v>
+        <v>99442.25049079434</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.460478571157058e-06</v>
+        <v>1.389830572744289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.052408854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>75090.28055909426</v>
+        <v>89951.62167205282</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.65287772363909</v>
+        <v>49.57514096241904</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.51832842905918</v>
+        <v>67.83089496562036</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.60149147031411</v>
+        <v>61.35720955137526</v>
       </c>
       <c r="AD3" t="n">
-        <v>37652.8777236391</v>
+        <v>49575.14096241904</v>
       </c>
       <c r="AE3" t="n">
-        <v>51518.32842905918</v>
+        <v>67830.89496562036</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.030775527278923e-05</v>
+        <v>1.9202566266827e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.486002604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>46601.49147031411</v>
+        <v>61357.20955137526</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>34.93687508532834</v>
+        <v>46.85913832410786</v>
       </c>
       <c r="AB4" t="n">
-        <v>47.80217379776057</v>
+        <v>64.11474033430505</v>
       </c>
       <c r="AC4" t="n">
-        <v>43.24000142135981</v>
+        <v>57.99571950241572</v>
       </c>
       <c r="AD4" t="n">
-        <v>34936.87508532834</v>
+        <v>46859.13832410786</v>
       </c>
       <c r="AE4" t="n">
-        <v>47802.17379776057</v>
+        <v>64114.74033430505</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.141141144651966e-05</v>
+        <v>2.125859401011243e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.3427734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>43240.0014213598</v>
+        <v>57995.71950241573</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>34.09113630564678</v>
+        <v>34.09122581419783</v>
       </c>
       <c r="AB5" t="n">
-        <v>46.64499668804419</v>
+        <v>46.64511915759257</v>
       </c>
       <c r="AC5" t="n">
-        <v>42.19326367088304</v>
+        <v>42.19337445210961</v>
       </c>
       <c r="AD5" t="n">
-        <v>34091.13630564677</v>
+        <v>34091.22581419782</v>
       </c>
       <c r="AE5" t="n">
-        <v>46644.99668804419</v>
+        <v>46645.11915759258</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.168932537855906e-05</v>
+        <v>2.177632658672383e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.310221354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>42193.26367088304</v>
+        <v>42193.37445210961</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.2461838093409</v>
+        <v>44.19607509785966</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.4888954059308</v>
+        <v>60.4710197420963</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.14749907253277</v>
+        <v>54.69975048953224</v>
       </c>
       <c r="AD2" t="n">
-        <v>33246.1838093409</v>
+        <v>44196.07509785966</v>
       </c>
       <c r="AE2" t="n">
-        <v>45488.89540593079</v>
+        <v>60471.01974209629</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.123032125803311e-05</v>
+        <v>2.251114925712738e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.476236979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>41147.49907253277</v>
+        <v>54699.75048953224</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>30.38907514068029</v>
+        <v>30.38916464923134</v>
       </c>
       <c r="AB3" t="n">
-        <v>41.57967327874975</v>
+        <v>41.57979574829813</v>
       </c>
       <c r="AC3" t="n">
-        <v>37.61136761853053</v>
+        <v>37.61147839975709</v>
       </c>
       <c r="AD3" t="n">
-        <v>30389.0751406803</v>
+        <v>30389.16464923134</v>
       </c>
       <c r="AE3" t="n">
-        <v>41579.67327874975</v>
+        <v>41579.79574829813</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292483206661549e-05</v>
+        <v>2.590779169088928e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.282552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>37611.36761853053</v>
+        <v>37611.47839975709</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29.9042677665214</v>
+        <v>40.37892457279946</v>
       </c>
       <c r="AB2" t="n">
-        <v>40.91633844123692</v>
+        <v>55.24822599276148</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.01134052691165</v>
+        <v>49.97541284549187</v>
       </c>
       <c r="AD2" t="n">
-        <v>29904.2677665214</v>
+        <v>40378.92457279946</v>
       </c>
       <c r="AE2" t="n">
-        <v>40916.33844123692</v>
+        <v>55248.22599276148</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248797778918584e-05</v>
+        <v>2.612563050709445e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.3818359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>37011.34052691166</v>
+        <v>49975.41284549188</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>29.00323202546977</v>
+        <v>29.00332153402081</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.68350158944462</v>
+        <v>39.683624058993</v>
       </c>
       <c r="AC3" t="n">
-        <v>35.89616389395335</v>
+        <v>35.89627467517992</v>
       </c>
       <c r="AD3" t="n">
-        <v>29003.23202546977</v>
+        <v>29003.32153402081</v>
       </c>
       <c r="AE3" t="n">
-        <v>39683.50158944462</v>
+        <v>39683.62405899299</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.319760996144876e-05</v>
+        <v>2.761022539038633e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.30859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>35896.16389395335</v>
+        <v>35896.27467517992</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>28.1436576029284</v>
+        <v>38.23845060522847</v>
       </c>
       <c r="AB2" t="n">
-        <v>38.50739394278207</v>
+        <v>52.31953507929818</v>
       </c>
       <c r="AC2" t="n">
-        <v>34.83230231040733</v>
+        <v>47.32623208235728</v>
       </c>
       <c r="AD2" t="n">
-        <v>28143.6576029284</v>
+        <v>38238.45060522847</v>
       </c>
       <c r="AE2" t="n">
-        <v>38507.39394278207</v>
+        <v>52319.53507929818</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.301785640035668e-05</v>
+        <v>2.829894224708296e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.3720703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>34832.30231040733</v>
+        <v>47326.23208235728</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>26.44403532366041</v>
+        <v>35.95641266469937</v>
       </c>
       <c r="AB2" t="n">
-        <v>36.18189575825587</v>
+        <v>49.19715009267282</v>
       </c>
       <c r="AC2" t="n">
-        <v>32.72874640874819</v>
+        <v>44.50184313655129</v>
       </c>
       <c r="AD2" t="n">
-        <v>26444.03532366041</v>
+        <v>35956.41266469937</v>
       </c>
       <c r="AE2" t="n">
-        <v>36181.89575825587</v>
+        <v>49197.15009267282</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.222854379431113e-05</v>
+        <v>2.908592113939169e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.5673828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>32728.74640874819</v>
+        <v>44501.8431365513</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.28772632315449</v>
+        <v>49.81098262431078</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.38695629045549</v>
+        <v>68.15358393202027</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.3872187077482</v>
+        <v>61.64910153571888</v>
       </c>
       <c r="AD2" t="n">
-        <v>38287.72632315449</v>
+        <v>49810.98262431078</v>
       </c>
       <c r="AE2" t="n">
-        <v>52386.95629045549</v>
+        <v>68153.58393202026</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.54051442235762e-06</v>
+        <v>1.851411425699926e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.6796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>47387.21870774819</v>
+        <v>61649.10153571888</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.40601639822833</v>
+        <v>32.40610590677939</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.33934128848194</v>
+        <v>44.33946375803033</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.10765678664047</v>
+        <v>40.10776756786704</v>
       </c>
       <c r="AD3" t="n">
-        <v>32406.01639822833</v>
+        <v>32406.10590677939</v>
       </c>
       <c r="AE3" t="n">
-        <v>44339.34128848194</v>
+        <v>44339.46375803032</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.215930345254678e-05</v>
+        <v>2.359607914625909e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.318359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>40107.65678664047</v>
+        <v>40107.76756786703</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>31.8933886653044</v>
+        <v>31.89347817385545</v>
       </c>
       <c r="AB4" t="n">
-        <v>43.63794140875935</v>
+        <v>43.63806387830773</v>
       </c>
       <c r="AC4" t="n">
-        <v>39.47319752701559</v>
+        <v>39.47330830824217</v>
       </c>
       <c r="AD4" t="n">
-        <v>31893.3886653044</v>
+        <v>31893.47817385545</v>
       </c>
       <c r="AE4" t="n">
-        <v>43637.94140875935</v>
+        <v>43638.06387830773</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243523497071284e-05</v>
+        <v>2.413154583372218e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.2890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>39473.1975270156</v>
+        <v>39473.30830824217</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.22163691513096</v>
+        <v>58.20846761925526</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.24248278196604</v>
+        <v>79.643393372989</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.20670898665051</v>
+        <v>72.04233968969406</v>
       </c>
       <c r="AD2" t="n">
-        <v>46221.63691513096</v>
+        <v>58208.46761925526</v>
       </c>
       <c r="AE2" t="n">
-        <v>63242.48278196604</v>
+        <v>79643.393372989</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.821358488437195e-06</v>
+        <v>1.46759362898374e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.974283854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>57206.70898665051</v>
+        <v>72042.33968969405</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.60940516125655</v>
+        <v>48.42564366479127</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.09060323445381</v>
+        <v>66.25810205076516</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.31002636445275</v>
+        <v>59.93452178488462</v>
       </c>
       <c r="AD3" t="n">
-        <v>36609.40516125655</v>
+        <v>48425.64366479126</v>
       </c>
       <c r="AE3" t="n">
-        <v>50090.60323445381</v>
+        <v>66258.10205076516</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.06199132643135e-05</v>
+        <v>1.99271227244062e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.455078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>45310.02636445274</v>
+        <v>59934.52178488462</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>34.01555064416236</v>
+        <v>34.01564015271342</v>
       </c>
       <c r="AB4" t="n">
-        <v>46.54157705139768</v>
+        <v>46.54169952094606</v>
       </c>
       <c r="AC4" t="n">
-        <v>42.0997142592074</v>
+        <v>42.09982504043396</v>
       </c>
       <c r="AD4" t="n">
-        <v>34015.55064416236</v>
+        <v>34015.64015271341</v>
       </c>
       <c r="AE4" t="n">
-        <v>46541.57705139768</v>
+        <v>46541.69952094606</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.174043595915422e-05</v>
+        <v>2.202966280169718e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.315104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>42099.71425920739</v>
+        <v>42099.82504043396</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>33.70679736537807</v>
+        <v>33.70688687392912</v>
       </c>
       <c r="AB5" t="n">
-        <v>46.11912719413373</v>
+        <v>46.11924966368212</v>
       </c>
       <c r="AC5" t="n">
-        <v>41.71758242340736</v>
+        <v>41.71769320463392</v>
       </c>
       <c r="AD5" t="n">
-        <v>33706.79736537807</v>
+        <v>33706.88687392912</v>
       </c>
       <c r="AE5" t="n">
-        <v>46119.12719413373</v>
+        <v>46119.24966368212</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.181673171175008e-05</v>
+        <v>2.21728235589924e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.306966145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>41717.58242340737</v>
+        <v>41717.69320463393</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>26.06584366006336</v>
+        <v>35.22603662329519</v>
       </c>
       <c r="AB2" t="n">
-        <v>35.66443723948623</v>
+        <v>48.19781737091161</v>
       </c>
       <c r="AC2" t="n">
-        <v>32.26067340475079</v>
+        <v>43.59788532717972</v>
       </c>
       <c r="AD2" t="n">
-        <v>26065.84366006336</v>
+        <v>35226.03662329519</v>
       </c>
       <c r="AE2" t="n">
-        <v>35664.43723948623</v>
+        <v>48197.81737091162</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.093011279578175e-05</v>
+        <v>2.733538262110904e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.81640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>32260.67340475079</v>
+        <v>43597.88532717973</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.3759696983959</v>
+        <v>42.01932447214482</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.9299859513248</v>
+        <v>57.49269350437091</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.83280834481477</v>
+        <v>52.00567152792992</v>
       </c>
       <c r="AD2" t="n">
-        <v>31375.9696983959</v>
+        <v>42019.32447214481</v>
       </c>
       <c r="AE2" t="n">
-        <v>42929.98595132479</v>
+        <v>57492.69350437091</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18464166766697e-05</v>
+        <v>2.439512990025295e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.435546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>38832.80834481477</v>
+        <v>52005.67152792992</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>29.59438221472982</v>
+        <v>29.59447172328086</v>
       </c>
       <c r="AB3" t="n">
-        <v>40.49233935809205</v>
+        <v>40.49246182764043</v>
       </c>
       <c r="AC3" t="n">
-        <v>36.62780732117442</v>
+        <v>36.62791810240099</v>
       </c>
       <c r="AD3" t="n">
-        <v>29594.38221472982</v>
+        <v>29594.47172328087</v>
       </c>
       <c r="AE3" t="n">
-        <v>40492.33935809205</v>
+        <v>40492.46182764043</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.299364310684e-05</v>
+        <v>2.675759431061975e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.30859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>36627.80732117442</v>
+        <v>36627.91810240099</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.55035919160351</v>
+        <v>45.8116665203792</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.27332570009105</v>
+        <v>62.68154320124965</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.76162584388732</v>
+        <v>56.69930469223387</v>
       </c>
       <c r="AD2" t="n">
-        <v>34550.35919160351</v>
+        <v>45811.6665203792</v>
       </c>
       <c r="AE2" t="n">
-        <v>47273.32570009105</v>
+        <v>62681.54320124965</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.074839451827851e-05</v>
+        <v>2.129454844678702e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.5234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>42761.62584388732</v>
+        <v>56699.30469223387</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.13061018797417</v>
+        <v>31.13069969652522</v>
       </c>
       <c r="AB3" t="n">
-        <v>42.59427424466976</v>
+        <v>42.59439671421814</v>
       </c>
       <c r="AC3" t="n">
-        <v>38.52913649226755</v>
+        <v>38.52924727349412</v>
       </c>
       <c r="AD3" t="n">
-        <v>31130.61018797417</v>
+        <v>31130.69969652522</v>
       </c>
       <c r="AE3" t="n">
-        <v>42594.27424466976</v>
+        <v>42594.39671421814</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254732352152496e-05</v>
+        <v>2.485855800624421e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.305338541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>38529.13649226755</v>
+        <v>38529.24727349412</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>31.00972111568539</v>
+        <v>31.00981062423643</v>
       </c>
       <c r="AB4" t="n">
-        <v>42.42886848271558</v>
+        <v>42.42899095226396</v>
       </c>
       <c r="AC4" t="n">
-        <v>38.37951682408534</v>
+        <v>38.37962760531191</v>
       </c>
       <c r="AD4" t="n">
-        <v>31009.72111568539</v>
+        <v>31009.81062423643</v>
       </c>
       <c r="AE4" t="n">
-        <v>42428.86848271558</v>
+        <v>42428.99095226396</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.26723972854267e-05</v>
+        <v>2.510635216008722e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.292317708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>38379.51682408534</v>
+        <v>38379.62760531191</v>
       </c>
     </row>
   </sheetData>
